--- a/gruppearbejde/Webravo Excalibur Scrum Burndown uge3.xlsx
+++ b/gruppearbejde/Webravo Excalibur Scrum Burndown uge3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/Excalibur/gruppearbejde/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5849946E-C71F-1C46-AF75-9449CBC7E383}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFC63CE-9410-5740-B8AE-B8F6E0BB95FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1325,16 +1325,16 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>154</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>231</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>308</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#N/A</c:v>
@@ -1518,7 +1518,7 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>#N/A</c:v>
@@ -1808,6 +1808,12 @@
           <c:cat>
             <c:strRef>
               <c:f>'Sprint 1 Example'!$C$16:$L$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
@@ -1816,6 +1822,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1854,6 +1863,12 @@
           <c:cat>
             <c:strRef>
               <c:f>'Sprint 1 Example'!$C$16:$L$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
@@ -1900,6 +1915,12 @@
           <c:cat>
             <c:strRef>
               <c:f>'Sprint 1 Example'!$C$16:$L$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
@@ -4068,8 +4089,8 @@
   </sheetPr>
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="162" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="162" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1"/>
@@ -4239,7 +4260,7 @@
       <c r="N7" s="17"/>
       <c r="O7" s="122">
         <f>MAX(C16:L16)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" s="83"/>
       <c r="Q7" s="81"/>
@@ -4306,19 +4327,19 @@
       </c>
       <c r="C10" s="77">
         <f>IF(LEN(C9)&gt;0,(LOOKUP(9.99999999999999E+307,$C14:$L14))/(COUNT($C$14:$L$14))*C9,"")</f>
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D10" s="77">
         <f t="shared" ref="D10:H10" si="0">IF(LEN(D9)&gt;0,(LOOKUP(9.99999999999999E+307,$C14:$L14))/(COUNT($C$14:$L$14))*D9,NA())</f>
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="E10" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>231</v>
       </c>
       <c r="F10" s="77">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="G10" s="77" t="e">
         <f t="shared" si="0"/>
@@ -4410,19 +4431,19 @@
       </c>
       <c r="C12" s="77">
         <f>IF(LEN(C9)&gt;0,IF(C13=0,C5,C5-C14),"")</f>
-        <v>293</v>
+        <v>216</v>
       </c>
       <c r="D12" s="77">
         <f t="shared" ref="D12" si="4">IF(D9&gt;0,IF(D13=0,C12,$C5-D14),NA())</f>
-        <v>293</v>
+        <v>216</v>
       </c>
       <c r="E12" s="77">
         <f t="shared" ref="E12" si="5">IF(E9&gt;0,IF(E13=0,D12,$C5-E14),NA())</f>
-        <v>293</v>
+        <v>216</v>
       </c>
       <c r="F12" s="77">
         <f t="shared" ref="F12" si="6">IF(F9&gt;0,IF(F13=0,E12,$C5-F14),NA())</f>
-        <v>293</v>
+        <v>216</v>
       </c>
       <c r="G12" s="77" t="e">
         <f t="shared" ref="G12" si="7">IF(G9&gt;0,IF(G13=0,F12,$C5-G14),NA())</f>
@@ -4452,7 +4473,7 @@
       <c r="N12" s="17"/>
       <c r="O12" s="120">
         <f>LOOKUP(9.99999999999999E+307,$C14:$L14)</f>
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="P12" s="92" t="s">
         <v>58</v>
@@ -4465,7 +4486,7 @@
         <v>53</v>
       </c>
       <c r="C13" s="89">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D13" s="89"/>
       <c r="E13" s="89"/>
@@ -4492,7 +4513,7 @@
       </c>
       <c r="C14" s="87">
         <f>IF(LEN(C9)&gt;0,C13,"")</f>
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="D14" s="87" t="e">
         <f t="shared" ref="D14:F14" si="10">IF(LEN(D13)&gt;0,IF(LEN(D9)&gt;0,C14+D13,NA()),NA())</f>
@@ -4562,9 +4583,9 @@
       <c r="B16" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="70" t="str">
+      <c r="C16" s="70">
         <f>IF(SUM(C17:C24)&gt;0,C9,"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="D16" s="70" t="str">
         <f>IF(SUM(D17:D24)&gt;0,D9,"")</f>
@@ -4615,7 +4636,9 @@
       <c r="B17" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="78"/>
+      <c r="C17" s="78">
+        <v>7</v>
+      </c>
       <c r="D17" s="78"/>
       <c r="E17" s="78"/>
       <c r="F17" s="78"/>
@@ -4650,9 +4673,9 @@
       <c r="L18" s="79"/>
       <c r="M18" s="16"/>
       <c r="N18" s="16"/>
-      <c r="O18" s="112" t="e">
+      <c r="O18" s="112">
         <f>LOOKUP(9.99999999999999E+307,$C17:$L17)</f>
-        <v>#N/A</v>
+        <v>7</v>
       </c>
       <c r="P18" s="90" t="s">
         <v>58</v>
@@ -4715,7 +4738,9 @@
       <c r="B21" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="78"/>
+      <c r="C21" s="78">
+        <v>4</v>
+      </c>
       <c r="D21" s="78"/>
       <c r="E21" s="78"/>
       <c r="F21" s="78"/>
@@ -4771,9 +4796,9 @@
       <c r="L23" s="79"/>
       <c r="M23" s="17"/>
       <c r="N23" s="17"/>
-      <c r="O23" s="100" t="e">
+      <c r="O23" s="100">
         <f>(COUNTIFS(C16:L16,"&gt;0"))/O18</f>
-        <v>#N/A</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="P23" s="101"/>
       <c r="Q23" s="19"/>
@@ -4783,7 +4808,9 @@
       <c r="B24" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="78"/>
+      <c r="C24" s="78">
+        <v>14</v>
+      </c>
       <c r="D24" s="78"/>
       <c r="E24" s="78"/>
       <c r="F24" s="78"/>
@@ -4804,9 +4831,9 @@
       <c r="B25" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="75" t="str">
+      <c r="C25" s="75">
         <f t="shared" ref="C25:L25" si="14">IF(SUM(C17:C24)&gt;0,SUM(C17:C24)-$C$6,"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="D25" s="75" t="str">
         <f t="shared" si="14"/>

--- a/gruppearbejde/Webravo Excalibur Scrum Burndown uge3.xlsx
+++ b/gruppearbejde/Webravo Excalibur Scrum Burndown uge3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/Excalibur/gruppearbejde/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAFC63CE-9410-5740-B8AE-B8F6E0BB95FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B9EA12-B302-FD40-8931-C0EA1EE5EAA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1 Example" sheetId="2" r:id="rId1"/>
@@ -1416,16 +1416,16 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>73.25</c:v>
+                  <c:v>79.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>146.5</c:v>
+                  <c:v>158.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>219.75</c:v>
+                  <c:v>237.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>293</c:v>
+                  <c:v>317</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#N/A</c:v>
@@ -4090,7 +4090,7 @@
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="162" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1"/>
@@ -4197,7 +4197,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="60">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>27</v>
@@ -4224,7 +4224,7 @@
         <v>28</v>
       </c>
       <c r="C6" s="62">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>29</v>
@@ -4380,19 +4380,19 @@
       </c>
       <c r="C11" s="77">
         <f>IF(LEN(C9)&gt;0,($C$5/MAX($C9:$L9))*C9,"")</f>
-        <v>73.25</v>
+        <v>79.25</v>
       </c>
       <c r="D11" s="77">
         <f t="shared" ref="D11:H11" si="2">IF(LEN(D9)&gt;0,($C$5/MAX($C9:$L9))*D9,NA())</f>
-        <v>146.5</v>
+        <v>158.5</v>
       </c>
       <c r="E11" s="77">
         <f t="shared" si="2"/>
-        <v>219.75</v>
+        <v>237.75</v>
       </c>
       <c r="F11" s="77">
         <f t="shared" si="2"/>
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="G11" s="77" t="e">
         <f t="shared" si="2"/>
@@ -4431,19 +4431,19 @@
       </c>
       <c r="C12" s="77">
         <f>IF(LEN(C9)&gt;0,IF(C13=0,C5,C5-C14),"")</f>
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="D12" s="77">
         <f t="shared" ref="D12" si="4">IF(D9&gt;0,IF(D13=0,C12,$C5-D14),NA())</f>
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="E12" s="77">
         <f t="shared" ref="E12" si="5">IF(E9&gt;0,IF(E13=0,D12,$C5-E14),NA())</f>
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="F12" s="77">
         <f t="shared" ref="F12" si="6">IF(F9&gt;0,IF(F13=0,E12,$C5-F14),NA())</f>
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="G12" s="77" t="e">
         <f t="shared" ref="G12" si="7">IF(G9&gt;0,IF(G13=0,F12,$C5-G14),NA())</f>
@@ -4502,7 +4502,7 @@
       <c r="O13" s="120"/>
       <c r="P13" s="91">
         <f>C5</f>
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="Q13" s="81"/>
     </row>
@@ -4704,7 +4704,7 @@
       <c r="O19" s="112"/>
       <c r="P19" s="114">
         <f>C6</f>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q19" s="19"/>
     </row>
@@ -4833,7 +4833,7 @@
       </c>
       <c r="C25" s="75">
         <f t="shared" ref="C25:L25" si="14">IF(SUM(C17:C24)&gt;0,SUM(C17:C24)-$C$6,"")</f>
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D25" s="75" t="str">
         <f t="shared" si="14"/>

--- a/gruppearbejde/Webravo Excalibur Scrum Burndown uge3.xlsx
+++ b/gruppearbejde/Webravo Excalibur Scrum Burndown uge3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/Excalibur/gruppearbejde/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B9EA12-B302-FD40-8931-C0EA1EE5EAA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A85AA2-DEDF-FE49-9E8D-88F81B833300}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1325,16 +1325,16 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>77</c:v>
+                  <c:v>59.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>154</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>231</c:v>
+                  <c:v>178.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>308</c:v>
+                  <c:v>238</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#N/A</c:v>
@@ -1416,16 +1416,16 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>79.25</c:v>
+                  <c:v>81.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>158.5</c:v>
+                  <c:v>162.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>237.75</c:v>
+                  <c:v>243.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>317</c:v>
+                  <c:v>325</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#N/A</c:v>
@@ -1521,7 +1521,7 @@
                   <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>#N/A</c:v>
+                  <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>#N/A</c:v>
@@ -1809,9 +1809,12 @@
             <c:strRef>
               <c:f>'Sprint 1 Example'!$C$16:$L$16</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1824,6 +1827,9 @@
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1864,9 +1870,12 @@
             <c:strRef>
               <c:f>'Sprint 1 Example'!$C$16:$L$16</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1916,9 +1925,12 @@
             <c:strRef>
               <c:f>'Sprint 1 Example'!$C$16:$L$16</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4090,7 +4102,7 @@
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="162" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1"/>
@@ -4197,7 +4209,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="60">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>27</v>
@@ -4224,7 +4236,7 @@
         <v>28</v>
       </c>
       <c r="C6" s="62">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>29</v>
@@ -4260,7 +4272,7 @@
       <c r="N7" s="17"/>
       <c r="O7" s="122">
         <f>MAX(C16:L16)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P7" s="83"/>
       <c r="Q7" s="81"/>
@@ -4327,19 +4339,19 @@
       </c>
       <c r="C10" s="77">
         <f>IF(LEN(C9)&gt;0,(LOOKUP(9.99999999999999E+307,$C14:$L14))/(COUNT($C$14:$L$14))*C9,"")</f>
-        <v>77</v>
+        <v>59.5</v>
       </c>
       <c r="D10" s="77">
         <f t="shared" ref="D10:H10" si="0">IF(LEN(D9)&gt;0,(LOOKUP(9.99999999999999E+307,$C14:$L14))/(COUNT($C$14:$L$14))*D9,NA())</f>
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="E10" s="77">
         <f t="shared" si="0"/>
-        <v>231</v>
+        <v>178.5</v>
       </c>
       <c r="F10" s="77">
         <f t="shared" si="0"/>
-        <v>308</v>
+        <v>238</v>
       </c>
       <c r="G10" s="77" t="e">
         <f t="shared" si="0"/>
@@ -4380,19 +4392,19 @@
       </c>
       <c r="C11" s="77">
         <f>IF(LEN(C9)&gt;0,($C$5/MAX($C9:$L9))*C9,"")</f>
-        <v>79.25</v>
+        <v>81.25</v>
       </c>
       <c r="D11" s="77">
         <f t="shared" ref="D11:H11" si="2">IF(LEN(D9)&gt;0,($C$5/MAX($C9:$L9))*D9,NA())</f>
-        <v>158.5</v>
+        <v>162.5</v>
       </c>
       <c r="E11" s="77">
         <f t="shared" si="2"/>
-        <v>237.75</v>
+        <v>243.75</v>
       </c>
       <c r="F11" s="77">
         <f t="shared" si="2"/>
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="G11" s="77" t="e">
         <f t="shared" si="2"/>
@@ -4431,19 +4443,19 @@
       </c>
       <c r="C12" s="77">
         <f>IF(LEN(C9)&gt;0,IF(C13=0,C5,C5-C14),"")</f>
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="D12" s="77">
         <f t="shared" ref="D12" si="4">IF(D9&gt;0,IF(D13=0,C12,$C5-D14),NA())</f>
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="E12" s="77">
         <f t="shared" ref="E12" si="5">IF(E9&gt;0,IF(E13=0,D12,$C5-E14),NA())</f>
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="F12" s="77">
         <f t="shared" ref="F12" si="6">IF(F9&gt;0,IF(F13=0,E12,$C5-F14),NA())</f>
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="G12" s="77" t="e">
         <f t="shared" ref="G12" si="7">IF(G9&gt;0,IF(G13=0,F12,$C5-G14),NA())</f>
@@ -4473,7 +4485,7 @@
       <c r="N12" s="17"/>
       <c r="O12" s="120">
         <f>LOOKUP(9.99999999999999E+307,$C14:$L14)</f>
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="P12" s="92" t="s">
         <v>58</v>
@@ -4488,7 +4500,9 @@
       <c r="C13" s="89">
         <v>77</v>
       </c>
-      <c r="D13" s="89"/>
+      <c r="D13" s="89">
+        <v>42</v>
+      </c>
       <c r="E13" s="89"/>
       <c r="F13" s="89"/>
       <c r="G13" s="89"/>
@@ -4502,7 +4516,7 @@
       <c r="O13" s="120"/>
       <c r="P13" s="91">
         <f>C5</f>
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="Q13" s="81"/>
     </row>
@@ -4515,9 +4529,9 @@
         <f>IF(LEN(C9)&gt;0,C13,"")</f>
         <v>77</v>
       </c>
-      <c r="D14" s="87" t="e">
+      <c r="D14" s="87">
         <f t="shared" ref="D14:F14" si="10">IF(LEN(D13)&gt;0,IF(LEN(D9)&gt;0,C14+D13,NA()),NA())</f>
-        <v>#N/A</v>
+        <v>119</v>
       </c>
       <c r="E14" s="87" t="e">
         <f t="shared" si="10"/>
@@ -4587,9 +4601,9 @@
         <f>IF(SUM(C17:C24)&gt;0,C9,"")</f>
         <v>1</v>
       </c>
-      <c r="D16" s="70" t="str">
+      <c r="D16" s="70">
         <f>IF(SUM(D17:D24)&gt;0,D9,"")</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="E16" s="70" t="str">
         <f t="shared" ref="E16:F16" si="12">IF(SUM(E17:E24)&gt;0,E9,"")</f>
@@ -4639,7 +4653,10 @@
       <c r="C17" s="78">
         <v>7</v>
       </c>
-      <c r="D17" s="78"/>
+      <c r="D17" s="78">
+        <f>5+7</f>
+        <v>12</v>
+      </c>
       <c r="E17" s="78"/>
       <c r="F17" s="78"/>
       <c r="G17" s="78"/>
@@ -4675,7 +4692,7 @@
       <c r="N18" s="16"/>
       <c r="O18" s="112">
         <f>LOOKUP(9.99999999999999E+307,$C17:$L17)</f>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="P18" s="90" t="s">
         <v>58</v>
@@ -4704,7 +4721,7 @@
       <c r="O19" s="112"/>
       <c r="P19" s="114">
         <f>C6</f>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q19" s="19"/>
     </row>
@@ -4741,7 +4758,9 @@
       <c r="C21" s="78">
         <v>4</v>
       </c>
-      <c r="D21" s="78"/>
+      <c r="D21" s="78">
+        <v>5</v>
+      </c>
       <c r="E21" s="78"/>
       <c r="F21" s="78"/>
       <c r="G21" s="78"/>
@@ -4798,7 +4817,7 @@
       <c r="N23" s="17"/>
       <c r="O23" s="100">
         <f>(COUNTIFS(C16:L16,"&gt;0"))/O18</f>
-        <v>0.14285714285714285</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="P23" s="101"/>
       <c r="Q23" s="19"/>
@@ -4809,9 +4828,11 @@
         <v>43</v>
       </c>
       <c r="C24" s="78">
-        <v>14</v>
-      </c>
-      <c r="D24" s="78"/>
+        <v>18</v>
+      </c>
+      <c r="D24" s="78">
+        <v>12</v>
+      </c>
       <c r="E24" s="78"/>
       <c r="F24" s="78"/>
       <c r="G24" s="78"/>
@@ -4833,11 +4854,11 @@
       </c>
       <c r="C25" s="75">
         <f t="shared" ref="C25:L25" si="14">IF(SUM(C17:C24)&gt;0,SUM(C17:C24)-$C$6,"")</f>
-        <v>-3</v>
-      </c>
-      <c r="D25" s="75" t="str">
+        <v>0</v>
+      </c>
+      <c r="D25" s="75">
         <f t="shared" si="14"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="E25" s="75" t="str">
         <f t="shared" si="14"/>

--- a/gruppearbejde/Webravo Excalibur Scrum Burndown uge3.xlsx
+++ b/gruppearbejde/Webravo Excalibur Scrum Burndown uge3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/Excalibur/gruppearbejde/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A85AA2-DEDF-FE49-9E8D-88F81B833300}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281EBB0E-E5EC-7540-99F7-A396692A420B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1416,16 +1416,16 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>81.25</c:v>
+                  <c:v>97.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>162.5</c:v>
+                  <c:v>194.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>243.75</c:v>
+                  <c:v>291.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>325</c:v>
+                  <c:v>389</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#N/A</c:v>
@@ -4101,8 +4101,8 @@
   </sheetPr>
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="162" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="162" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1"/>
@@ -4209,7 +4209,8 @@
         <v>26</v>
       </c>
       <c r="C5" s="60">
-        <v>325</v>
+        <f>325+64</f>
+        <v>389</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>27</v>
@@ -4236,7 +4237,8 @@
         <v>28</v>
       </c>
       <c r="C6" s="62">
-        <v>29</v>
+        <f>29+8</f>
+        <v>37</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>29</v>
@@ -4392,19 +4394,19 @@
       </c>
       <c r="C11" s="77">
         <f>IF(LEN(C9)&gt;0,($C$5/MAX($C9:$L9))*C9,"")</f>
-        <v>81.25</v>
+        <v>97.25</v>
       </c>
       <c r="D11" s="77">
         <f t="shared" ref="D11:H11" si="2">IF(LEN(D9)&gt;0,($C$5/MAX($C9:$L9))*D9,NA())</f>
-        <v>162.5</v>
+        <v>194.5</v>
       </c>
       <c r="E11" s="77">
         <f t="shared" si="2"/>
-        <v>243.75</v>
+        <v>291.75</v>
       </c>
       <c r="F11" s="77">
         <f t="shared" si="2"/>
-        <v>325</v>
+        <v>389</v>
       </c>
       <c r="G11" s="77" t="e">
         <f t="shared" si="2"/>
@@ -4443,19 +4445,19 @@
       </c>
       <c r="C12" s="77">
         <f>IF(LEN(C9)&gt;0,IF(C13=0,C5,C5-C14),"")</f>
-        <v>248</v>
+        <v>312</v>
       </c>
       <c r="D12" s="77">
         <f t="shared" ref="D12" si="4">IF(D9&gt;0,IF(D13=0,C12,$C5-D14),NA())</f>
-        <v>206</v>
+        <v>270</v>
       </c>
       <c r="E12" s="77">
         <f t="shared" ref="E12" si="5">IF(E9&gt;0,IF(E13=0,D12,$C5-E14),NA())</f>
-        <v>206</v>
+        <v>270</v>
       </c>
       <c r="F12" s="77">
         <f t="shared" ref="F12" si="6">IF(F9&gt;0,IF(F13=0,E12,$C5-F14),NA())</f>
-        <v>206</v>
+        <v>270</v>
       </c>
       <c r="G12" s="77" t="e">
         <f t="shared" ref="G12" si="7">IF(G9&gt;0,IF(G13=0,F12,$C5-G14),NA())</f>
@@ -4516,7 +4518,7 @@
       <c r="O13" s="120"/>
       <c r="P13" s="91">
         <f>C5</f>
-        <v>325</v>
+        <v>389</v>
       </c>
       <c r="Q13" s="81"/>
     </row>
@@ -4721,7 +4723,7 @@
       <c r="O19" s="112"/>
       <c r="P19" s="114">
         <f>C6</f>
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q19" s="19"/>
     </row>
@@ -4828,10 +4830,10 @@
         <v>43</v>
       </c>
       <c r="C24" s="78">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D24" s="78">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E24" s="78"/>
       <c r="F24" s="78"/>

--- a/gruppearbejde/Webravo Excalibur Scrum Burndown uge3.xlsx
+++ b/gruppearbejde/Webravo Excalibur Scrum Burndown uge3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/Excalibur/gruppearbejde/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281EBB0E-E5EC-7540-99F7-A396692A420B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CACACCC-464B-4040-8562-FB4A98CC5DE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 1 Example" sheetId="2" r:id="rId1"/>
@@ -1416,16 +1416,16 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>97.25</c:v>
+                  <c:v>96</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>194.5</c:v>
+                  <c:v>192</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>291.75</c:v>
+                  <c:v>288</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>389</c:v>
+                  <c:v>384</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#N/A</c:v>
@@ -4101,8 +4101,8 @@
   </sheetPr>
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="162" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="162" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1"/>
@@ -4209,8 +4209,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="60">
-        <f>325+64</f>
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>27</v>
@@ -4237,7 +4236,6 @@
         <v>28</v>
       </c>
       <c r="C6" s="62">
-        <f>29+8</f>
         <v>37</v>
       </c>
       <c r="D6" s="20" t="s">
@@ -4394,19 +4392,19 @@
       </c>
       <c r="C11" s="77">
         <f>IF(LEN(C9)&gt;0,($C$5/MAX($C9:$L9))*C9,"")</f>
-        <v>97.25</v>
+        <v>96</v>
       </c>
       <c r="D11" s="77">
         <f t="shared" ref="D11:H11" si="2">IF(LEN(D9)&gt;0,($C$5/MAX($C9:$L9))*D9,NA())</f>
-        <v>194.5</v>
+        <v>192</v>
       </c>
       <c r="E11" s="77">
         <f t="shared" si="2"/>
-        <v>291.75</v>
+        <v>288</v>
       </c>
       <c r="F11" s="77">
         <f t="shared" si="2"/>
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="G11" s="77" t="e">
         <f t="shared" si="2"/>
@@ -4445,19 +4443,19 @@
       </c>
       <c r="C12" s="77">
         <f>IF(LEN(C9)&gt;0,IF(C13=0,C5,C5-C14),"")</f>
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D12" s="77">
         <f t="shared" ref="D12" si="4">IF(D9&gt;0,IF(D13=0,C12,$C5-D14),NA())</f>
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E12" s="77">
         <f t="shared" ref="E12" si="5">IF(E9&gt;0,IF(E13=0,D12,$C5-E14),NA())</f>
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="F12" s="77">
         <f t="shared" ref="F12" si="6">IF(F9&gt;0,IF(F13=0,E12,$C5-F14),NA())</f>
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G12" s="77" t="e">
         <f t="shared" ref="G12" si="7">IF(G9&gt;0,IF(G13=0,F12,$C5-G14),NA())</f>
@@ -4518,7 +4516,7 @@
       <c r="O13" s="120"/>
       <c r="P13" s="91">
         <f>C5</f>
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="Q13" s="81"/>
     </row>

--- a/gruppearbejde/Webravo Excalibur Scrum Burndown uge3.xlsx
+++ b/gruppearbejde/Webravo Excalibur Scrum Burndown uge3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/Excalibur/gruppearbejde/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CACACCC-464B-4040-8562-FB4A98CC5DE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE792D0C-47AB-9149-8723-19836137B04B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1325,16 +1325,16 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>59.5</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>119</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>178.5</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>238</c:v>
+                  <c:v>272</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#N/A</c:v>
@@ -1524,7 +1524,7 @@
                   <c:v>119</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>#N/A</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>#N/A</c:v>
@@ -1809,12 +1809,15 @@
             <c:strRef>
               <c:f>'Sprint 1 Example'!$C$16:$L$16</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1830,6 +1833,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1870,12 +1876,15 @@
             <c:strRef>
               <c:f>'Sprint 1 Example'!$C$16:$L$16</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1925,12 +1934,15 @@
             <c:strRef>
               <c:f>'Sprint 1 Example'!$C$16:$L$16</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4101,8 +4113,8 @@
   </sheetPr>
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="162" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="162" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1"/>
@@ -4272,7 +4284,7 @@
       <c r="N7" s="17"/>
       <c r="O7" s="122">
         <f>MAX(C16:L16)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P7" s="83"/>
       <c r="Q7" s="81"/>
@@ -4339,19 +4351,19 @@
       </c>
       <c r="C10" s="77">
         <f>IF(LEN(C9)&gt;0,(LOOKUP(9.99999999999999E+307,$C14:$L14))/(COUNT($C$14:$L$14))*C9,"")</f>
-        <v>59.5</v>
+        <v>68</v>
       </c>
       <c r="D10" s="77">
         <f t="shared" ref="D10:H10" si="0">IF(LEN(D9)&gt;0,(LOOKUP(9.99999999999999E+307,$C14:$L14))/(COUNT($C$14:$L$14))*D9,NA())</f>
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="E10" s="77">
         <f t="shared" si="0"/>
-        <v>178.5</v>
+        <v>204</v>
       </c>
       <c r="F10" s="77">
         <f t="shared" si="0"/>
-        <v>238</v>
+        <v>272</v>
       </c>
       <c r="G10" s="77" t="e">
         <f t="shared" si="0"/>
@@ -4451,11 +4463,11 @@
       </c>
       <c r="E12" s="77">
         <f t="shared" ref="E12" si="5">IF(E9&gt;0,IF(E13=0,D12,$C5-E14),NA())</f>
-        <v>265</v>
+        <v>180</v>
       </c>
       <c r="F12" s="77">
         <f t="shared" ref="F12" si="6">IF(F9&gt;0,IF(F13=0,E12,$C5-F14),NA())</f>
-        <v>265</v>
+        <v>180</v>
       </c>
       <c r="G12" s="77" t="e">
         <f t="shared" ref="G12" si="7">IF(G9&gt;0,IF(G13=0,F12,$C5-G14),NA())</f>
@@ -4485,7 +4497,7 @@
       <c r="N12" s="17"/>
       <c r="O12" s="120">
         <f>LOOKUP(9.99999999999999E+307,$C14:$L14)</f>
-        <v>119</v>
+        <v>204</v>
       </c>
       <c r="P12" s="92" t="s">
         <v>58</v>
@@ -4503,7 +4515,9 @@
       <c r="D13" s="89">
         <v>42</v>
       </c>
-      <c r="E13" s="89"/>
+      <c r="E13" s="89">
+        <v>85</v>
+      </c>
       <c r="F13" s="89"/>
       <c r="G13" s="89"/>
       <c r="H13" s="89"/>
@@ -4533,9 +4547,9 @@
         <f t="shared" ref="D14:F14" si="10">IF(LEN(D13)&gt;0,IF(LEN(D9)&gt;0,C14+D13,NA()),NA())</f>
         <v>119</v>
       </c>
-      <c r="E14" s="87" t="e">
+      <c r="E14" s="87">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>204</v>
       </c>
       <c r="F14" s="87" t="e">
         <f t="shared" si="10"/>
@@ -4605,9 +4619,9 @@
         <f>IF(SUM(D17:D24)&gt;0,D9,"")</f>
         <v>2</v>
       </c>
-      <c r="E16" s="70" t="str">
+      <c r="E16" s="70">
         <f t="shared" ref="E16:F16" si="12">IF(SUM(E17:E24)&gt;0,E9,"")</f>
-        <v/>
+        <v>3</v>
       </c>
       <c r="F16" s="70" t="str">
         <f t="shared" si="12"/>
@@ -4657,7 +4671,9 @@
         <f>5+7</f>
         <v>12</v>
       </c>
-      <c r="E17" s="78"/>
+      <c r="E17" s="78">
+        <v>22</v>
+      </c>
       <c r="F17" s="78"/>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
@@ -4692,7 +4708,7 @@
       <c r="N18" s="16"/>
       <c r="O18" s="112">
         <f>LOOKUP(9.99999999999999E+307,$C17:$L17)</f>
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="P18" s="90" t="s">
         <v>58</v>
@@ -4761,7 +4777,9 @@
       <c r="D21" s="78">
         <v>5</v>
       </c>
-      <c r="E21" s="78"/>
+      <c r="E21" s="78">
+        <v>5</v>
+      </c>
       <c r="F21" s="78"/>
       <c r="G21" s="78"/>
       <c r="H21" s="78"/>
@@ -4817,7 +4835,7 @@
       <c r="N23" s="17"/>
       <c r="O23" s="100">
         <f>(COUNTIFS(C16:L16,"&gt;0"))/O18</f>
-        <v>0.16666666666666666</v>
+        <v>0.13636363636363635</v>
       </c>
       <c r="P23" s="101"/>
       <c r="Q23" s="19"/>
@@ -4833,7 +4851,9 @@
       <c r="D24" s="78">
         <v>20</v>
       </c>
-      <c r="E24" s="78"/>
+      <c r="E24" s="78">
+        <v>10</v>
+      </c>
       <c r="F24" s="78"/>
       <c r="G24" s="78"/>
       <c r="H24" s="78"/>
@@ -4860,9 +4880,9 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="E25" s="75" t="str">
+      <c r="E25" s="75">
         <f t="shared" si="14"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="F25" s="75" t="str">
         <f t="shared" si="14"/>

--- a/gruppearbejde/Webravo Excalibur Scrum Burndown uge3.xlsx
+++ b/gruppearbejde/Webravo Excalibur Scrum Burndown uge3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/Excalibur/gruppearbejde/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE792D0C-47AB-9149-8723-19836137B04B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B35475D-3B2D-D544-8D9F-C1DED51638F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1325,16 +1325,16 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>68</c:v>
+                  <c:v>77.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>136</c:v>
+                  <c:v>155.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>204</c:v>
+                  <c:v>233.25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>272</c:v>
+                  <c:v>311</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#N/A</c:v>
@@ -1521,13 +1521,13 @@
                   <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>119</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>204</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>#N/A</c:v>
+                  <c:v>311</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#N/A</c:v>
@@ -1809,7 +1809,7 @@
             <c:strRef>
               <c:f>'Sprint 1 Example'!$C$16:$L$16</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1818,6 +1818,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1836,6 +1839,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1876,7 +1882,7 @@
             <c:strRef>
               <c:f>'Sprint 1 Example'!$C$16:$L$16</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1885,6 +1891,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1934,7 +1943,7 @@
             <c:strRef>
               <c:f>'Sprint 1 Example'!$C$16:$L$16</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1943,6 +1952,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1953,6 +1965,9 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4113,8 +4128,8 @@
   </sheetPr>
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="162" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="162" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1"/>
@@ -4284,7 +4299,7 @@
       <c r="N7" s="17"/>
       <c r="O7" s="122">
         <f>MAX(C16:L16)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P7" s="83"/>
       <c r="Q7" s="81"/>
@@ -4351,19 +4366,19 @@
       </c>
       <c r="C10" s="77">
         <f>IF(LEN(C9)&gt;0,(LOOKUP(9.99999999999999E+307,$C14:$L14))/(COUNT($C$14:$L$14))*C9,"")</f>
-        <v>68</v>
+        <v>77.75</v>
       </c>
       <c r="D10" s="77">
         <f t="shared" ref="D10:H10" si="0">IF(LEN(D9)&gt;0,(LOOKUP(9.99999999999999E+307,$C14:$L14))/(COUNT($C$14:$L$14))*D9,NA())</f>
-        <v>136</v>
+        <v>155.5</v>
       </c>
       <c r="E10" s="77">
         <f t="shared" si="0"/>
-        <v>204</v>
+        <v>233.25</v>
       </c>
       <c r="F10" s="77">
         <f t="shared" si="0"/>
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="G10" s="77" t="e">
         <f t="shared" si="0"/>
@@ -4459,15 +4474,15 @@
       </c>
       <c r="D12" s="77">
         <f t="shared" ref="D12" si="4">IF(D9&gt;0,IF(D13=0,C12,$C5-D14),NA())</f>
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="E12" s="77">
         <f t="shared" ref="E12" si="5">IF(E9&gt;0,IF(E13=0,D12,$C5-E14),NA())</f>
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="F12" s="77">
         <f t="shared" ref="F12" si="6">IF(F9&gt;0,IF(F13=0,E12,$C5-F14),NA())</f>
-        <v>180</v>
+        <v>73</v>
       </c>
       <c r="G12" s="77" t="e">
         <f t="shared" ref="G12" si="7">IF(G9&gt;0,IF(G13=0,F12,$C5-G14),NA())</f>
@@ -4497,7 +4512,7 @@
       <c r="N12" s="17"/>
       <c r="O12" s="120">
         <f>LOOKUP(9.99999999999999E+307,$C14:$L14)</f>
-        <v>204</v>
+        <v>311</v>
       </c>
       <c r="P12" s="92" t="s">
         <v>58</v>
@@ -4513,12 +4528,14 @@
         <v>77</v>
       </c>
       <c r="D13" s="89">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="E13" s="89">
         <v>85</v>
       </c>
-      <c r="F13" s="89"/>
+      <c r="F13" s="89">
+        <v>96</v>
+      </c>
       <c r="G13" s="89"/>
       <c r="H13" s="89"/>
       <c r="I13" s="89"/>
@@ -4545,15 +4562,15 @@
       </c>
       <c r="D14" s="87">
         <f t="shared" ref="D14:F14" si="10">IF(LEN(D13)&gt;0,IF(LEN(D9)&gt;0,C14+D13,NA()),NA())</f>
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="E14" s="87">
         <f t="shared" si="10"/>
-        <v>204</v>
-      </c>
-      <c r="F14" s="87" t="e">
+        <v>215</v>
+      </c>
+      <c r="F14" s="87">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v>311</v>
       </c>
       <c r="G14" s="87" t="e">
         <f>IF(LEN(G13)&gt;0,IF(LEN(G9)&gt;0,F14+G13,NA()),NA())</f>
@@ -4623,9 +4640,9 @@
         <f t="shared" ref="E16:F16" si="12">IF(SUM(E17:E24)&gt;0,E9,"")</f>
         <v>3</v>
       </c>
-      <c r="F16" s="70" t="str">
+      <c r="F16" s="70">
         <f t="shared" si="12"/>
-        <v/>
+        <v>4</v>
       </c>
       <c r="G16" s="70" t="str">
         <f t="shared" ref="G16:L16" si="13">IF(SUM(G17:G24)&gt;0,G9,"")</f>
@@ -4674,7 +4691,9 @@
       <c r="E17" s="78">
         <v>22</v>
       </c>
-      <c r="F17" s="78"/>
+      <c r="F17" s="78">
+        <v>32</v>
+      </c>
       <c r="G17" s="78"/>
       <c r="H17" s="78"/>
       <c r="I17" s="78"/>
@@ -4708,7 +4727,7 @@
       <c r="N18" s="16"/>
       <c r="O18" s="112">
         <f>LOOKUP(9.99999999999999E+307,$C17:$L17)</f>
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="P18" s="90" t="s">
         <v>58</v>
@@ -4725,7 +4744,9 @@
       <c r="C19" s="78"/>
       <c r="D19" s="78"/>
       <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
+      <c r="F19" s="78">
+        <v>3</v>
+      </c>
       <c r="G19" s="78"/>
       <c r="H19" s="78"/>
       <c r="I19" s="78"/>
@@ -4780,7 +4801,9 @@
       <c r="E21" s="78">
         <v>5</v>
       </c>
-      <c r="F21" s="78"/>
+      <c r="F21" s="78">
+        <v>1</v>
+      </c>
       <c r="G21" s="78"/>
       <c r="H21" s="78"/>
       <c r="I21" s="78"/>
@@ -4835,7 +4858,7 @@
       <c r="N23" s="17"/>
       <c r="O23" s="100">
         <f>(COUNTIFS(C16:L16,"&gt;0"))/O18</f>
-        <v>0.13636363636363635</v>
+        <v>0.125</v>
       </c>
       <c r="P23" s="101"/>
       <c r="Q23" s="19"/>
@@ -4854,7 +4877,9 @@
       <c r="E24" s="78">
         <v>10</v>
       </c>
-      <c r="F24" s="78"/>
+      <c r="F24" s="78">
+        <v>1</v>
+      </c>
       <c r="G24" s="78"/>
       <c r="H24" s="78"/>
       <c r="I24" s="78"/>
@@ -4884,9 +4909,9 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="F25" s="75" t="str">
+      <c r="F25" s="75">
         <f t="shared" si="14"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="G25" s="75" t="str">
         <f t="shared" si="14"/>

--- a/gruppearbejde/Webravo Excalibur Scrum Burndown uge3.xlsx
+++ b/gruppearbejde/Webravo Excalibur Scrum Burndown uge3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/Excalibur/gruppearbejde/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B35475D-3B2D-D544-8D9F-C1DED51638F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286A1CD0-C14D-974E-AB24-177C66805E93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1416,16 +1416,16 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>96</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>192</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>288</c:v>
+                  <c:v>315</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>384</c:v>
+                  <c:v>420</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#N/A</c:v>
@@ -4129,7 +4129,7 @@
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="162" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1"/>
@@ -4236,7 +4236,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="60">
-        <v>384</v>
+        <v>420</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>27</v>
@@ -4263,7 +4263,7 @@
         <v>28</v>
       </c>
       <c r="C6" s="62">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>29</v>
@@ -4419,19 +4419,19 @@
       </c>
       <c r="C11" s="77">
         <f>IF(LEN(C9)&gt;0,($C$5/MAX($C9:$L9))*C9,"")</f>
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D11" s="77">
         <f t="shared" ref="D11:H11" si="2">IF(LEN(D9)&gt;0,($C$5/MAX($C9:$L9))*D9,NA())</f>
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="E11" s="77">
         <f t="shared" si="2"/>
-        <v>288</v>
+        <v>315</v>
       </c>
       <c r="F11" s="77">
         <f t="shared" si="2"/>
-        <v>384</v>
+        <v>420</v>
       </c>
       <c r="G11" s="77" t="e">
         <f t="shared" si="2"/>
@@ -4470,19 +4470,19 @@
       </c>
       <c r="C12" s="77">
         <f>IF(LEN(C9)&gt;0,IF(C13=0,C5,C5-C14),"")</f>
-        <v>307</v>
+        <v>343</v>
       </c>
       <c r="D12" s="77">
         <f t="shared" ref="D12" si="4">IF(D9&gt;0,IF(D13=0,C12,$C5-D14),NA())</f>
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="E12" s="77">
         <f t="shared" ref="E12" si="5">IF(E9&gt;0,IF(E13=0,D12,$C5-E14),NA())</f>
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="F12" s="77">
         <f t="shared" ref="F12" si="6">IF(F9&gt;0,IF(F13=0,E12,$C5-F14),NA())</f>
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="G12" s="77" t="e">
         <f t="shared" ref="G12" si="7">IF(G9&gt;0,IF(G13=0,F12,$C5-G14),NA())</f>
@@ -4547,7 +4547,7 @@
       <c r="O13" s="120"/>
       <c r="P13" s="91">
         <f>C5</f>
-        <v>384</v>
+        <v>420</v>
       </c>
       <c r="Q13" s="81"/>
     </row>
@@ -4758,7 +4758,7 @@
       <c r="O19" s="112"/>
       <c r="P19" s="114">
         <f>C6</f>
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="Q19" s="19"/>
     </row>
@@ -4899,19 +4899,19 @@
       </c>
       <c r="C25" s="75">
         <f t="shared" ref="C25:L25" si="14">IF(SUM(C17:C24)&gt;0,SUM(C17:C24)-$C$6,"")</f>
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="D25" s="75">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="E25" s="75">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="F25" s="75">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="G25" s="75" t="str">
         <f t="shared" si="14"/>

--- a/gruppearbejde/Webravo Excalibur Scrum Burndown uge3.xlsx
+++ b/gruppearbejde/Webravo Excalibur Scrum Burndown uge3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/Excalibur/gruppearbejde/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286A1CD0-C14D-974E-AB24-177C66805E93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E42D357-CF69-6846-A014-CB4E902C65C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1416,16 +1416,16 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>105</c:v>
+                  <c:v>95.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>210</c:v>
+                  <c:v>191</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>315</c:v>
+                  <c:v>286.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>420</c:v>
+                  <c:v>382</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>#N/A</c:v>
@@ -1965,9 +1965,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4128,8 +4125,8 @@
   </sheetPr>
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="162" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="162" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1"/>
@@ -4236,7 +4233,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="60">
-        <v>420</v>
+        <v>382</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>27</v>
@@ -4263,7 +4260,7 @@
         <v>28</v>
       </c>
       <c r="C6" s="62">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>29</v>
@@ -4419,19 +4416,19 @@
       </c>
       <c r="C11" s="77">
         <f>IF(LEN(C9)&gt;0,($C$5/MAX($C9:$L9))*C9,"")</f>
-        <v>105</v>
+        <v>95.5</v>
       </c>
       <c r="D11" s="77">
         <f t="shared" ref="D11:H11" si="2">IF(LEN(D9)&gt;0,($C$5/MAX($C9:$L9))*D9,NA())</f>
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="E11" s="77">
         <f t="shared" si="2"/>
-        <v>315</v>
+        <v>286.5</v>
       </c>
       <c r="F11" s="77">
         <f t="shared" si="2"/>
-        <v>420</v>
+        <v>382</v>
       </c>
       <c r="G11" s="77" t="e">
         <f t="shared" si="2"/>
@@ -4470,19 +4467,19 @@
       </c>
       <c r="C12" s="77">
         <f>IF(LEN(C9)&gt;0,IF(C13=0,C5,C5-C14),"")</f>
-        <v>343</v>
+        <v>305</v>
       </c>
       <c r="D12" s="77">
         <f t="shared" ref="D12" si="4">IF(D9&gt;0,IF(D13=0,C12,$C5-D14),NA())</f>
-        <v>290</v>
+        <v>252</v>
       </c>
       <c r="E12" s="77">
         <f t="shared" ref="E12" si="5">IF(E9&gt;0,IF(E13=0,D12,$C5-E14),NA())</f>
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="F12" s="77">
         <f t="shared" ref="F12" si="6">IF(F9&gt;0,IF(F13=0,E12,$C5-F14),NA())</f>
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="G12" s="77" t="e">
         <f t="shared" ref="G12" si="7">IF(G9&gt;0,IF(G13=0,F12,$C5-G14),NA())</f>
@@ -4547,7 +4544,7 @@
       <c r="O13" s="120"/>
       <c r="P13" s="91">
         <f>C5</f>
-        <v>420</v>
+        <v>382</v>
       </c>
       <c r="Q13" s="81"/>
     </row>
@@ -4744,9 +4741,7 @@
       <c r="C19" s="78"/>
       <c r="D19" s="78"/>
       <c r="E19" s="78"/>
-      <c r="F19" s="78">
-        <v>3</v>
-      </c>
+      <c r="F19" s="78"/>
       <c r="G19" s="78"/>
       <c r="H19" s="78"/>
       <c r="I19" s="78"/>
@@ -4758,7 +4753,7 @@
       <c r="O19" s="112"/>
       <c r="P19" s="114">
         <f>C6</f>
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="19"/>
     </row>
@@ -4869,16 +4864,16 @@
         <v>43</v>
       </c>
       <c r="C24" s="78">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D24" s="78">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E24" s="78">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F24" s="78">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G24" s="78"/>
       <c r="H24" s="78"/>
@@ -4899,19 +4894,19 @@
       </c>
       <c r="C25" s="75">
         <f t="shared" ref="C25:L25" si="14">IF(SUM(C17:C24)&gt;0,SUM(C17:C24)-$C$6,"")</f>
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="D25" s="75">
         <f t="shared" si="14"/>
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="E25" s="75">
         <f t="shared" si="14"/>
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="F25" s="75">
         <f t="shared" si="14"/>
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="G25" s="75" t="str">
         <f t="shared" si="14"/>

--- a/gruppearbejde/Webravo Excalibur Scrum Burndown uge3.xlsx
+++ b/gruppearbejde/Webravo Excalibur Scrum Burndown uge3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/Excalibur/gruppearbejde/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E42D357-CF69-6846-A014-CB4E902C65C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2603B89E-8D4C-CC42-9988-5DC23E47102E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1315,6 +1315,9 @@
                 <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1325,19 +1328,19 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>77.75</c:v>
+                  <c:v>86.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>155.5</c:v>
+                  <c:v>173.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>233.25</c:v>
+                  <c:v>259.79999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>311</c:v>
+                  <c:v>346.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>433</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#N/A</c:v>
@@ -1406,6 +1409,9 @@
                 <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1416,19 +1422,19 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>95.5</c:v>
+                  <c:v>86.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>191</c:v>
+                  <c:v>173.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>286.5</c:v>
+                  <c:v>259.79999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>382</c:v>
+                  <c:v>346.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>433</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#N/A</c:v>
@@ -1508,6 +1514,9 @@
                 <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1530,7 +1539,7 @@
                   <c:v>311</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>#N/A</c:v>
+                  <c:v>433</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>#N/A</c:v>
@@ -1809,7 +1818,7 @@
             <c:strRef>
               <c:f>'Sprint 1 Example'!$C$16:$L$16</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1821,6 +1830,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1842,6 +1854,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1882,7 +1897,7 @@
             <c:strRef>
               <c:f>'Sprint 1 Example'!$C$16:$L$16</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1894,6 +1909,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1943,7 +1961,7 @@
             <c:strRef>
               <c:f>'Sprint 1 Example'!$C$16:$L$16</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1955,6 +1973,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4125,8 +4146,8 @@
   </sheetPr>
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="162" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="162" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="12.75" customHeight="1"/>
@@ -4233,7 +4254,7 @@
         <v>26</v>
       </c>
       <c r="C5" s="60">
-        <v>382</v>
+        <v>433</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>27</v>
@@ -4260,7 +4281,7 @@
         <v>28</v>
       </c>
       <c r="C6" s="62">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D6" s="20" t="s">
         <v>29</v>
@@ -4296,7 +4317,7 @@
       <c r="N7" s="17"/>
       <c r="O7" s="122">
         <f>MAX(C16:L16)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P7" s="83"/>
       <c r="Q7" s="81"/>
@@ -4344,7 +4365,9 @@
       <c r="F9" s="64">
         <v>4</v>
       </c>
-      <c r="G9" s="64"/>
+      <c r="G9" s="64">
+        <v>5</v>
+      </c>
       <c r="H9" s="64"/>
       <c r="I9" s="64"/>
       <c r="J9" s="64"/>
@@ -4363,23 +4386,23 @@
       </c>
       <c r="C10" s="77">
         <f>IF(LEN(C9)&gt;0,(LOOKUP(9.99999999999999E+307,$C14:$L14))/(COUNT($C$14:$L$14))*C9,"")</f>
-        <v>77.75</v>
+        <v>86.6</v>
       </c>
       <c r="D10" s="77">
         <f t="shared" ref="D10:H10" si="0">IF(LEN(D9)&gt;0,(LOOKUP(9.99999999999999E+307,$C14:$L14))/(COUNT($C$14:$L$14))*D9,NA())</f>
-        <v>155.5</v>
+        <v>173.2</v>
       </c>
       <c r="E10" s="77">
         <f t="shared" si="0"/>
-        <v>233.25</v>
+        <v>259.79999999999995</v>
       </c>
       <c r="F10" s="77">
         <f t="shared" si="0"/>
-        <v>311</v>
-      </c>
-      <c r="G10" s="77" t="e">
+        <v>346.4</v>
+      </c>
+      <c r="G10" s="77">
         <f t="shared" si="0"/>
-        <v>#N/A</v>
+        <v>433</v>
       </c>
       <c r="H10" s="77" t="e">
         <f t="shared" si="0"/>
@@ -4416,23 +4439,23 @@
       </c>
       <c r="C11" s="77">
         <f>IF(LEN(C9)&gt;0,($C$5/MAX($C9:$L9))*C9,"")</f>
-        <v>95.5</v>
+        <v>86.6</v>
       </c>
       <c r="D11" s="77">
         <f t="shared" ref="D11:H11" si="2">IF(LEN(D9)&gt;0,($C$5/MAX($C9:$L9))*D9,NA())</f>
-        <v>191</v>
+        <v>173.2</v>
       </c>
       <c r="E11" s="77">
         <f t="shared" si="2"/>
-        <v>286.5</v>
+        <v>259.79999999999995</v>
       </c>
       <c r="F11" s="77">
         <f t="shared" si="2"/>
-        <v>382</v>
-      </c>
-      <c r="G11" s="77" t="e">
+        <v>346.4</v>
+      </c>
+      <c r="G11" s="77">
         <f t="shared" si="2"/>
-        <v>#N/A</v>
+        <v>433</v>
       </c>
       <c r="H11" s="77" t="e">
         <f t="shared" si="2"/>
@@ -4467,23 +4490,23 @@
       </c>
       <c r="C12" s="77">
         <f>IF(LEN(C9)&gt;0,IF(C13=0,C5,C5-C14),"")</f>
-        <v>305</v>
+        <v>356</v>
       </c>
       <c r="D12" s="77">
         <f t="shared" ref="D12" si="4">IF(D9&gt;0,IF(D13=0,C12,$C5-D14),NA())</f>
-        <v>252</v>
+        <v>303</v>
       </c>
       <c r="E12" s="77">
         <f t="shared" ref="E12" si="5">IF(E9&gt;0,IF(E13=0,D12,$C5-E14),NA())</f>
-        <v>167</v>
+        <v>218</v>
       </c>
       <c r="F12" s="77">
         <f t="shared" ref="F12" si="6">IF(F9&gt;0,IF(F13=0,E12,$C5-F14),NA())</f>
-        <v>71</v>
-      </c>
-      <c r="G12" s="77" t="e">
+        <v>122</v>
+      </c>
+      <c r="G12" s="77">
         <f t="shared" ref="G12" si="7">IF(G9&gt;0,IF(G13=0,F12,$C5-G14),NA())</f>
-        <v>#N/A</v>
+        <v>0</v>
       </c>
       <c r="H12" s="77" t="e">
         <f t="shared" ref="H12" si="8">IF(H9&gt;0,IF(H13=0,G12,$C5-H14),NA())</f>
@@ -4509,7 +4532,7 @@
       <c r="N12" s="17"/>
       <c r="O12" s="120">
         <f>LOOKUP(9.99999999999999E+307,$C14:$L14)</f>
-        <v>311</v>
+        <v>433</v>
       </c>
       <c r="P12" s="92" t="s">
         <v>58</v>
@@ -4533,7 +4556,9 @@
       <c r="F13" s="89">
         <v>96</v>
       </c>
-      <c r="G13" s="89"/>
+      <c r="G13" s="89">
+        <v>122</v>
+      </c>
       <c r="H13" s="89"/>
       <c r="I13" s="89"/>
       <c r="J13" s="89"/>
@@ -4544,7 +4569,7 @@
       <c r="O13" s="120"/>
       <c r="P13" s="91">
         <f>C5</f>
-        <v>382</v>
+        <v>433</v>
       </c>
       <c r="Q13" s="81"/>
     </row>
@@ -4569,9 +4594,9 @@
         <f t="shared" si="10"/>
         <v>311</v>
       </c>
-      <c r="G14" s="87" t="e">
+      <c r="G14" s="87">
         <f>IF(LEN(G13)&gt;0,IF(LEN(G9)&gt;0,F14+G13,NA()),NA())</f>
-        <v>#N/A</v>
+        <v>433</v>
       </c>
       <c r="H14" s="87" t="e">
         <f t="shared" ref="H14:L14" si="11">IF(LEN(H13)&gt;0,IF(LEN(H9)&gt;0,G14+H13,NA()),NA())</f>
@@ -4641,9 +4666,9 @@
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="G16" s="70" t="str">
+      <c r="G16" s="70">
         <f t="shared" ref="G16:L16" si="13">IF(SUM(G17:G24)&gt;0,G9,"")</f>
-        <v/>
+        <v>5</v>
       </c>
       <c r="H16" s="70" t="str">
         <f t="shared" si="13"/>
@@ -4691,7 +4716,9 @@
       <c r="F17" s="78">
         <v>32</v>
       </c>
-      <c r="G17" s="78"/>
+      <c r="G17" s="78">
+        <v>52</v>
+      </c>
       <c r="H17" s="78"/>
       <c r="I17" s="78"/>
       <c r="J17" s="78"/>
@@ -4724,7 +4751,7 @@
       <c r="N18" s="16"/>
       <c r="O18" s="112">
         <f>LOOKUP(9.99999999999999E+307,$C17:$L17)</f>
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="P18" s="90" t="s">
         <v>58</v>
@@ -4753,7 +4780,7 @@
       <c r="O19" s="112"/>
       <c r="P19" s="114">
         <f>C6</f>
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="Q19" s="19"/>
     </row>
@@ -4853,7 +4880,7 @@
       <c r="N23" s="17"/>
       <c r="O23" s="100">
         <f>(COUNTIFS(C16:L16,"&gt;0"))/O18</f>
-        <v>0.125</v>
+        <v>9.6153846153846159E-2</v>
       </c>
       <c r="P23" s="101"/>
       <c r="Q23" s="19"/>
@@ -4864,16 +4891,16 @@
         <v>43</v>
       </c>
       <c r="C24" s="78">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D24" s="78">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E24" s="78">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F24" s="78">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="G24" s="78"/>
       <c r="H24" s="78"/>
@@ -4908,9 +4935,9 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="G25" s="75" t="str">
+      <c r="G25" s="75">
         <f t="shared" si="14"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H25" s="75" t="str">
         <f t="shared" si="14"/>
